--- a/biology/Zoologie/Cymothoe_sangaris/Cymothoe_sangaris.xlsx
+++ b/biology/Zoologie/Cymothoe_sangaris/Cymothoe_sangaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cymothoe sangaris est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Limenitidinae et de la tribu des Limenitidini[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cymothoe sangaris est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Limenitidinae et de la tribu des Limenitidini.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Afrique centrale.
 </t>
@@ -568,21 +584,92 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Cymothoe sangaris a été décrite par l'entomologiste français Jean-Baptiste Godart en 1824, sous le nom initial de Nymphalis sangaris[2].
-Synonymie
-Nymphalis sangaris Godard, 1824 Protonyme
-Harma uselda Hewitson, 1869 [3]
-Cymothoe sangaris ab. reuteri Strand, 1910[4]
-Cymothoe sangaris ab. pallida Schultze, 1920[5]
-Cymothoe sangaris f. pluviatilis Overlaet, 1945[6]
-Cymothoe sangaris reuteri f. extimata Overlaet, 1945[7]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cymothoe sangaris a été décrite par l'entomologiste français Jean-Baptiste Godart en 1824, sous le nom initial de Nymphalis sangaris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cymothoe_sangaris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cymothoe_sangaris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nymphalis sangaris Godard, 1824 Protonyme
+Harma uselda Hewitson, 1869 
+Cymothoe sangaris ab. reuteri Strand, 1910
+Cymothoe sangaris ab. pallida Schultze, 1920
+Cymothoe sangaris f. pluviatilis Overlaet, 1945
+Cymothoe sangaris reuteri f. extimata Overlaet, 1945
 Cymothoe sangaris reuteri f. simplicior Overlaet, 1945
-Cymothoe sangaris reuteri f. rubrior Overlaet, 1945[8]
-Cymothoe sangaris luluana f. orchymonti Overlaet, 1945[7]
-Taxinomie
-Certains auteurs pensent que ce nom recouvre en fait deux sous-espèces distinctes. Ils se fondent sur des caractéristiques morphologiques (principalement chez les femelles), la recherche ADN et la spécialisation sur des plantes hôtes différentes[9].
+Cymothoe sangaris reuteri f. rubrior Overlaet, 1945
+Cymothoe sangaris luluana f. orchymonti Overlaet, 1945</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cymothoe_sangaris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cymothoe_sangaris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Certains auteurs pensent que ce nom recouvre en fait deux sous-espèces distinctes. Ils se fondent sur des caractéristiques morphologiques (principalement chez les femelles), la recherche ADN et la spécialisation sur des plantes hôtes différentes.
 Liste des sous-espèces
 Cymothoe sangaris sangaris (Guinée, Sierra Leone, Liberia, Côte d'Ivoire, Ghana, Nigeria, Cameroun, Congo, Angola, RDC: Ubangi, Mongala, Uele, Nord Kivu, Tshopo, Tshuapa, Équateur, Kinshasa, Kwango, Kasai, Sankuru et Maniema)
 Cymothoe sangaris luluana Overlaet, 1945 (RDC : Lualaba et Lomami, Zambie)
@@ -599,34 +686,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Cymothoe_sangaris</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cymothoe_sangaris</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Cymothoe sangaris et l'Homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cymothoe sangaris comme emblème
-Selon Jean-Vincent Brisset, directeur de recherches à l'Iris, le nom de l’opération Sangaris (une intervention militaire française en Centrafrique) fait référence à ce papillon parce qu’« un papillon, ce n'est pas méchant, ça ne dure pas très longtemps, c'est considéré comme joli et politiquement correct »[10].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cymothoe sangaris comme emblème</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Jean-Vincent Brisset, directeur de recherches à l'Iris, le nom de l’opération Sangaris (une intervention militaire française en Centrafrique) fait référence à ce papillon parce qu’« un papillon, ce n'est pas méchant, ça ne dure pas très longtemps, c'est considéré comme joli et politiquement correct ».
 </t>
         </is>
       </c>
